--- a/biology/Botanique/Inocybe_hystrix/Inocybe_hystrix.xlsx
+++ b/biology/Botanique/Inocybe_hystrix/Inocybe_hystrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inocybe hystrix est une espèce de champignons de l'hémisphère nord, du genre Inocybe dans la famille des Inocybaceae.  
-Il s'agit d'un sporophore de 1 à 3 cm de diamètre, convexe ou campanulé, densément méchuleux et orné de méchules brunes, dressées, sur fond plus pâle. Ses lames adnées, serrées, blanchâtres, grisâtres puis brunes, à arêtes plus pâles. Son pied mesure de 2 à 6 cm de haut pour 3 à 5 mm d'épais, droit ou un peu clavé, orné de méchules brunes sur fond plus pâle. Il présente une cortine blanchâtre, fugace. Sa chair est blanchâtre, à odeur et saveur indistinctes. Sa sporée est brune et ses spores en amande et lisses mesurent de  9 à 11 µm pour 4,5 à 5,5 µm[2]. 
-Cette espèce pousse durant les saisons estivale et automnale dans les forêts de feuillus et de conifères de l'Europe et du Canada où elle est très rare[1],[2].
+Il s'agit d'un sporophore de 1 à 3 cm de diamètre, convexe ou campanulé, densément méchuleux et orné de méchules brunes, dressées, sur fond plus pâle. Ses lames adnées, serrées, blanchâtres, grisâtres puis brunes, à arêtes plus pâles. Son pied mesure de 2 à 6 cm de haut pour 3 à 5 mm d'épais, droit ou un peu clavé, orné de méchules brunes sur fond plus pâle. Il présente une cortine blanchâtre, fugace. Sa chair est blanchâtre, à odeur et saveur indistinctes. Sa sporée est brune et ses spores en amande et lisses mesurent de  9 à 11 µm pour 4,5 à 5,5 µm. 
+Cette espèce pousse durant les saisons estivale et automnale dans les forêts de feuillus et de conifères de l'Europe et du Canada où elle est très rare,.
 	Inocybe hystrix
 </t>
         </is>
